--- a/commandes.xlsx
+++ b/commandes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\eurobot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\eurobot_IUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C127E-72C7-45C8-B27B-67AB4493BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48883DC-93EF-4AB2-9C1F-24A00CB11CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAAC47E2-4EEF-4075-B6D6-42588C239D67}"/>
+    <workbookView xWindow="6492" yWindow="1572" windowWidth="13008" windowHeight="10260" xr2:uid="{CAAC47E2-4EEF-4075-B6D6-42588C239D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>roue JSUMO</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>codeur incrémental 400 points E6B2 CWZ6C</t>
+  </si>
+  <si>
+    <t>trop petit</t>
+  </si>
+  <si>
+    <t>https://www.jsumo.com/js7444-aluminum-silicone-wheel-pair-74mm-diameter</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -691,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B82358-FD47-4838-8DBC-B6B04A5900E8}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,19 +1008,36 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
     </row>
